--- a/src/test/resources/TestSteps.xlsx
+++ b/src/test/resources/TestSteps.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\IdeaProjects\HybridFramework\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="14295" windowHeight="4620"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="14292" windowHeight="4620"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>Testcase</t>
   </si>
@@ -41,13 +46,16 @@
   </si>
   <si>
     <t>CloseBrowser</t>
+  </si>
+  <si>
+    <t>SignIn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +125,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -163,7 +179,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -195,9 +211,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -229,6 +246,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -404,21 +422,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -429,7 +447,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -440,7 +458,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -451,86 +469,97 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/TestSteps.xlsx
+++ b/src/test/resources/TestSteps.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="18">
   <si>
     <t>Testcase</t>
   </si>
@@ -30,25 +30,49 @@
     <t>Steps</t>
   </si>
   <si>
-    <t>LaunchApplication</t>
-  </si>
-  <si>
-    <t>BasePage</t>
-  </si>
-  <si>
-    <t>SetupEnvironment</t>
-  </si>
-  <si>
     <t>HomePage</t>
   </si>
   <si>
-    <t>ClickSignIn</t>
-  </si>
-  <si>
-    <t>CloseBrowser</t>
-  </si>
-  <si>
-    <t>SignIn</t>
+    <t>OrderProductWithSingleUser</t>
+  </si>
+  <si>
+    <t>Session</t>
+  </si>
+  <si>
+    <t>CreateSession</t>
+  </si>
+  <si>
+    <t>BrokerLogin</t>
+  </si>
+  <si>
+    <t>SelectProduct</t>
+  </si>
+  <si>
+    <t>AddProductToCart</t>
+  </si>
+  <si>
+    <t>AddCart</t>
+  </si>
+  <si>
+    <t>SelectCart</t>
+  </si>
+  <si>
+    <t>PlaceOrder</t>
+  </si>
+  <si>
+    <t>Checkout</t>
+  </si>
+  <si>
+    <t>OrderProductWithMultipleUser</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>UnderwriterLogin</t>
+  </si>
+  <si>
+    <t>DestroySession</t>
   </si>
 </sst>
 </file>
@@ -423,15 +447,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.33203125" customWidth="1"/>
     <col min="3" max="3" width="21.33203125" customWidth="1"/>
   </cols>
@@ -449,21 +473,21 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
@@ -471,40 +495,58 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
@@ -512,54 +554,202 @@
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="A16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="A17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="A18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="A19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
